--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>ФИЛИАЛ № 7806 БАНКА ВТБ (ПАО) Г. САНКТ-ПЕТЕРБУРГ</t>
   </si>
@@ -98,6 +98,21 @@
     <t>Сумма</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Экспедиторские услуги по маршруту Санкт-Петербург -&gt; Белгород по ЭР №СП00-81553 от 24.04.2019</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Страхование груза</t>
+  </si>
+  <si>
     <t>Итого:</t>
   </si>
   <si>
@@ -143,10 +158,25 @@
     <t>Дзись Д. В.</t>
   </si>
   <si>
-    <t>[[items]]</t>
-  </si>
-  <si>
-    <t>Счет на оплату № от г.</t>
+    <t>Счет на оплату №{order_id} от {order_date}г.</t>
+  </si>
+  <si>
+    <t>[service_name]</t>
+  </si>
+  <si>
+    <t>[service_number]</t>
+  </si>
+  <si>
+    <t>[service_quantity]</t>
+  </si>
+  <si>
+    <t>[service_point]</t>
+  </si>
+  <si>
+    <t>[service_price]</t>
+  </si>
+  <si>
+    <t>[service_summary]</t>
   </si>
 </sst>
 </file>
@@ -185,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -385,16 +415,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -434,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -442,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -463,9 +517,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,10 +551,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -499,24 +574,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -532,23 +613,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +930,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AU54"/>
+  <dimension ref="A1:AS56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25:AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,481 +971,478 @@
     <col min="45" max="45" width="0.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:47" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="26" t="s">
+    <row r="1" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="29" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="30" t="s">
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-    </row>
-    <row r="3" spans="3:47" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="27"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="16" t="s">
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+    </row>
+    <row r="3" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="30"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="31" t="s">
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-    </row>
-    <row r="4" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="32" t="s">
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
+    </row>
+    <row r="4" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="21"/>
-    </row>
-    <row r="5" spans="3:47" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="37" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="28"/>
+    </row>
+    <row r="5" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="16" t="s">
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16" t="s">
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-    </row>
-    <row r="6" spans="3:47" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="33" t="s">
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+    </row>
+    <row r="6" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="14"/>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="18"/>
-    </row>
-    <row r="7" spans="3:47" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="27"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="18"/>
-    </row>
-    <row r="8" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="34" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="25"/>
+    </row>
+    <row r="7" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="30"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="25"/>
+    </row>
+    <row r="8" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="21"/>
-      <c r="AU8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35"/>
-      <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AO10" s="35"/>
-      <c r="AP10" s="35"/>
-      <c r="AQ10" s="35"/>
-    </row>
-    <row r="11" spans="3:47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
-    </row>
-    <row r="12" spans="3:47" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-    </row>
-    <row r="13" spans="3:47" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="3:47" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="22" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="28"/>
+    </row>
+    <row r="9" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+    </row>
+    <row r="11" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+    </row>
+    <row r="12" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+    </row>
+    <row r="13" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1412,13 +1481,13 @@
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
     </row>
-    <row r="15" spans="3:47" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+    <row r="15" spans="3:43" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1455,16 +1524,16 @@
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
     </row>
-    <row r="16" spans="3:47" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:44" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1504,12 +1573,12 @@
       <c r="AQ17" s="9"/>
     </row>
     <row r="18" spans="2:44" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1548,14 +1617,14 @@
     </row>
     <row r="19" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1596,201 +1665,277 @@
     </row>
     <row r="21" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13" t="s">
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13" t="s">
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="11" t="s">
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-    </row>
-    <row r="23" spans="2:44" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="25"/>
-    </row>
-    <row r="24" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-    </row>
-    <row r="25" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4" t="s">
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+    </row>
+    <row r="23" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AL25" s="15">
-        <v>700</v>
-      </c>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-    </row>
-    <row r="26" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AL26" s="15">
-        <v>108.33</v>
-      </c>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17">
+        <v>650</v>
+      </c>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="10">
+        <v>650</v>
+      </c>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+    </row>
+    <row r="24" spans="2:44" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="17">
+        <v>50</v>
+      </c>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="42">
+        <v>50</v>
+      </c>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="44"/>
+    </row>
+    <row r="25" spans="2:44" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="44"/>
+    </row>
+    <row r="26" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
     </row>
     <row r="27" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z27" s="4"/>
@@ -1805,201 +1950,161 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL27" s="15">
+        <v>30</v>
+      </c>
+      <c r="AL27" s="11">
         <v>700</v>
       </c>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
     </row>
     <row r="28" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>108.33</v>
+      </c>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
     </row>
     <row r="29" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-    </row>
-    <row r="30" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:44" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-    </row>
-    <row r="32" spans="2:44" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-    </row>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>700</v>
+      </c>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+    </row>
+    <row r="30" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+    </row>
+    <row r="31" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+    </row>
+    <row r="32" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2042,9 +2147,9 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
     </row>
-    <row r="34" spans="3:43" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2087,9 +2192,9 @@
       <c r="AP34" s="7"/>
       <c r="AQ34" s="7"/>
     </row>
-    <row r="35" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -2132,9 +2237,9 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
     </row>
-    <row r="36" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:43" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2177,91 +2282,179 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
     </row>
-    <row r="37" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-    </row>
-    <row r="40" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="AA40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB40" s="5"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="8" t="s">
+    <row r="37" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-    </row>
-    <row r="41" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+    </row>
+    <row r="38" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+    </row>
+    <row r="39" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+    </row>
+    <row r="42" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="AA42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB42" s="5"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8"/>
+      <c r="AN42" s="8"/>
+      <c r="AO42" s="8"/>
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="8"/>
+    </row>
     <row r="43" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2274,19 +2467,22 @@
     <row r="52" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="59">
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
     <mergeCell ref="C2:X3"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AD2:AQ2"/>
     <mergeCell ref="Y3:AC4"/>
     <mergeCell ref="AD3:AQ4"/>
     <mergeCell ref="C4:X4"/>
-    <mergeCell ref="Y5:AC8"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="I14:AQ15"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="I17:AQ18"/>
     <mergeCell ref="AD5:AQ8"/>
     <mergeCell ref="C6:X7"/>
     <mergeCell ref="C8:X8"/>
@@ -2296,28 +2492,44 @@
     <mergeCell ref="F5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:X5"/>
+    <mergeCell ref="Y5:AC8"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="I14:AQ15"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="I17:AQ18"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:AQ20"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AL26:AR26"/>
-    <mergeCell ref="AL27:AR27"/>
-    <mergeCell ref="B23:AR23"/>
-    <mergeCell ref="C28:AQ28"/>
     <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="AK23:AR23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:W22"/>
     <mergeCell ref="X22:AA22"/>
     <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AK25:AR25"/>
+    <mergeCell ref="AL27:AR27"/>
+    <mergeCell ref="AL28:AR28"/>
+    <mergeCell ref="AL29:AR29"/>
+    <mergeCell ref="C30:AQ30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="C37:AQ37"/>
+    <mergeCell ref="C38:AQ38"/>
+    <mergeCell ref="N42:X42"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="C31:AP31"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="C34:AQ34"/>
     <mergeCell ref="C35:AQ35"/>
     <mergeCell ref="C36:AQ36"/>
-    <mergeCell ref="N40:X40"/>
-    <mergeCell ref="AJ40:AQ40"/>
-    <mergeCell ref="C29:AP29"/>
-    <mergeCell ref="C31:AQ31"/>
-    <mergeCell ref="C32:AQ32"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="C34:AQ34"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -488,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -508,120 +508,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -930,10 +931,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25:AR25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AU23" sqref="AU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -973,145 +974,145 @@
   <sheetData>
     <row r="1" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="38" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39" t="s">
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="30"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="23" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="40" t="s">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
     </row>
     <row r="4" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="28"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="24"/>
     </row>
     <row r="5" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="34" t="s">
@@ -1144,117 +1145,117 @@
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
       <c r="X5" s="35"/>
-      <c r="Y5" s="23" t="s">
+      <c r="Y5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23" t="s">
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
     </row>
     <row r="6" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="25"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="29"/>
     </row>
     <row r="7" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="30"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="25"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="29"/>
     </row>
     <row r="8" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="31" t="s">
@@ -1281,25 +1282,25 @@
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="31"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="28"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="24"/>
     </row>
     <row r="9" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1435,464 +1436,474 @@
     </row>
     <row r="13" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="3:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="9" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15" spans="3:43" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:44" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="21" t="s">
+    <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="9" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-    </row>
-    <row r="18" spans="2:44" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-    </row>
-    <row r="19" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="22" t="s">
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+    </row>
+    <row r="18" spans="2:51" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+    </row>
+    <row r="19" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="9" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
-    </row>
-    <row r="21" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+    </row>
+    <row r="21" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+    </row>
+    <row r="22" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20" t="s">
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20" t="s">
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="18" t="s">
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-    </row>
-    <row r="23" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+    </row>
+    <row r="23" spans="2:51" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="12">
         <v>1</v>
       </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="16" t="s">
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="17">
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="14">
         <v>650</v>
       </c>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="10">
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="38">
         <v>650</v>
       </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-    </row>
-    <row r="24" spans="2:44" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+    </row>
+    <row r="24" spans="2:51" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="12">
         <v>1</v>
       </c>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="16" t="s">
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="17">
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="14">
         <v>50</v>
       </c>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
-      <c r="AK24" s="42">
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="7">
         <v>50</v>
       </c>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="44"/>
-    </row>
-    <row r="25" spans="2:44" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="9"/>
+    </row>
+    <row r="25" spans="2:51" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="15" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="16" t="s">
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="17" t="s">
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="42" t="s">
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="44"/>
-    </row>
-    <row r="26" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="9"/>
+    </row>
+    <row r="26" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1937,7 +1948,7 @@
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
     </row>
-    <row r="27" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
@@ -1952,17 +1963,17 @@
       <c r="AK27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AL27" s="11">
+      <c r="AL27" s="41">
         <v>700</v>
       </c>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-    </row>
-    <row r="28" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+    </row>
+    <row r="28" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
@@ -1977,17 +1988,17 @@
       <c r="AK28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AL28" s="11">
+      <c r="AL28" s="41">
         <v>108.33</v>
       </c>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-    </row>
-    <row r="29" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+    </row>
+    <row r="29" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
@@ -2002,375 +2013,375 @@
       <c r="AK29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AL29" s="11">
+      <c r="AL29" s="41">
         <v>700</v>
       </c>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-    </row>
-    <row r="30" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="12" t="s">
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+    </row>
+    <row r="30" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-    </row>
-    <row r="31" spans="2:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="9" t="s">
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+    </row>
+    <row r="31" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-    </row>
-    <row r="32" spans="2:44" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+      <c r="AM31" s="36"/>
+      <c r="AN31" s="36"/>
+      <c r="AO31" s="36"/>
+      <c r="AP31" s="36"/>
+    </row>
+    <row r="32" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
     </row>
     <row r="34" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
     </row>
     <row r="35" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
     </row>
     <row r="36" spans="3:43" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
-      <c r="AQ36" s="7"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
     </row>
     <row r="37" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="7"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
     </row>
     <row r="38" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="7"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
     </row>
     <row r="39" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
@@ -2424,19 +2435,19 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="8" t="s">
+      <c r="N42" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
       <c r="AA42" s="5" t="s">
         <v>43</v>
       </c>
@@ -2444,16 +2455,16 @@
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AJ42" s="8" t="s">
+      <c r="AJ42" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
-      <c r="AM42" s="8"/>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="8"/>
-      <c r="AP42" s="8"/>
-      <c r="AQ42" s="8"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
     </row>
     <row r="43" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2471,34 +2482,25 @@
     <row r="56" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="C2:X3"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AQ2"/>
-    <mergeCell ref="Y3:AC4"/>
-    <mergeCell ref="AD3:AQ4"/>
-    <mergeCell ref="C4:X4"/>
-    <mergeCell ref="AD5:AQ8"/>
-    <mergeCell ref="C6:X7"/>
-    <mergeCell ref="C8:X8"/>
-    <mergeCell ref="C10:AQ11"/>
-    <mergeCell ref="C12:AQ12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="Y5:AC8"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="I14:AQ15"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="I17:AQ18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:AQ20"/>
+    <mergeCell ref="C37:AQ37"/>
+    <mergeCell ref="C38:AQ38"/>
+    <mergeCell ref="N42:X42"/>
+    <mergeCell ref="AJ42:AQ42"/>
+    <mergeCell ref="C31:AP31"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="C34:AQ34"/>
+    <mergeCell ref="C35:AQ35"/>
+    <mergeCell ref="C36:AQ36"/>
+    <mergeCell ref="AK25:AR25"/>
+    <mergeCell ref="AL27:AR27"/>
+    <mergeCell ref="AL28:AR28"/>
+    <mergeCell ref="AL29:AR29"/>
+    <mergeCell ref="C30:AQ30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AJ25"/>
     <mergeCell ref="AK22:AR22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:W23"/>
@@ -2511,25 +2513,34 @@
     <mergeCell ref="X22:AA22"/>
     <mergeCell ref="AB22:AE22"/>
     <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK25:AR25"/>
-    <mergeCell ref="AL27:AR27"/>
-    <mergeCell ref="AL28:AR28"/>
-    <mergeCell ref="AL29:AR29"/>
-    <mergeCell ref="C30:AQ30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="C37:AQ37"/>
-    <mergeCell ref="C38:AQ38"/>
-    <mergeCell ref="N42:X42"/>
-    <mergeCell ref="AJ42:AQ42"/>
-    <mergeCell ref="C31:AP31"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="C34:AQ34"/>
-    <mergeCell ref="C35:AQ35"/>
-    <mergeCell ref="C36:AQ36"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="I14:AQ15"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="I17:AQ18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:AQ20"/>
+    <mergeCell ref="AD5:AQ8"/>
+    <mergeCell ref="C6:X7"/>
+    <mergeCell ref="C8:X8"/>
+    <mergeCell ref="C10:AQ11"/>
+    <mergeCell ref="C12:AQ12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="Y5:AC8"/>
+    <mergeCell ref="C2:X3"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AQ2"/>
+    <mergeCell ref="Y3:AC4"/>
+    <mergeCell ref="AD3:AQ4"/>
+    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>

--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -161,6 +161,9 @@
     <t>{Руководитель}</t>
   </si>
   <si>
+    <t>Всего наименований {ВсегоТоваров}, на сумму {СуммаДокумента} руб.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Счет на оплату №{УникальныйИдентификатор} от </t>
     </r>
@@ -168,7 +171,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -183,9 +186,6 @@
       </rPr>
       <t>г.</t>
     </r>
-  </si>
-  <si>
-    <t>Всего наименований {ВсегоТоваров}, на сумму {СуммаДокумента} руб.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,12 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -226,12 +231,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -532,151 +532,151 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +990,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:AQ11"/>
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1030,338 +1030,338 @@
   <sheetData>
     <row r="1" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="49" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
     </row>
     <row r="3" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="36"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="41" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="51" t="s">
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
     </row>
     <row r="4" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="21"/>
     </row>
     <row r="5" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="39" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="28" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
     </row>
     <row r="6" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="31"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
     </row>
     <row r="7" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="36"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="31"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="26"/>
     </row>
     <row r="8" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="34"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="21"/>
     </row>
     <row r="9" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
@@ -1448,138 +1448,138 @@
       <c r="AQ11" s="56"/>
     </row>
     <row r="12" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
     </row>
     <row r="13" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="3:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="9" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
     </row>
     <row r="15" spans="3:43" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
     </row>
     <row r="16" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="7"/>
@@ -1619,146 +1619,146 @@
       <c r="AQ16" s="7"/>
     </row>
     <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6"/>
     </row>
     <row r="18" spans="2:51" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
     </row>
     <row r="19" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
     </row>
     <row r="21" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AU21"/>
@@ -1768,118 +1768,118 @@
       <c r="AY21"/>
     </row>
     <row r="22" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24" t="s">
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24" t="s">
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="22" t="s">
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-    </row>
-    <row r="23" spans="2:51" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+    </row>
+    <row r="23" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="19" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="20" t="s">
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="21" t="s">
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="10" t="s">
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="12"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="42"/>
     </row>
     <row r="24" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -1941,15 +1941,15 @@
       <c r="AK25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AL25" s="13">
+      <c r="AL25" s="43">
         <v>700</v>
       </c>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
     </row>
     <row r="26" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z26" s="4"/>
@@ -1966,15 +1966,15 @@
       <c r="AK26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AL26" s="13">
+      <c r="AL26" s="43">
         <v>108.33</v>
       </c>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
     </row>
     <row r="27" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z27" s="4"/>
@@ -1991,376 +1991,376 @@
       <c r="AK27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL27" s="14" t="s">
+      <c r="AL27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="44"/>
+      <c r="AR27" s="44"/>
     </row>
     <row r="28" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
+      <c r="C28" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="46"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="46"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="46"/>
+      <c r="AQ28" s="46"/>
     </row>
     <row r="29" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
       <c r="AQ29" s="7"/>
     </row>
     <row r="30" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:51" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
     </row>
     <row r="32" spans="2:51" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="8"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
     </row>
     <row r="33" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
     </row>
     <row r="34" spans="3:43" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="8"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="52"/>
+      <c r="AQ34" s="52"/>
     </row>
     <row r="35" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="52"/>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="52"/>
     </row>
     <row r="36" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="52"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
+      <c r="AQ36" s="52"/>
     </row>
     <row r="37" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
@@ -2410,40 +2410,40 @@
         <v>32</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="J40" s="53" t="s">
+      <c r="J40" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
       <c r="AA40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AB40" s="5"/>
-      <c r="AG40" s="54" t="s">
+      <c r="AG40" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
-      <c r="AM40" s="54"/>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
+      <c r="AH40" s="53"/>
+      <c r="AI40" s="53"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="53"/>
+      <c r="AM40" s="53"/>
+      <c r="AN40" s="53"/>
+      <c r="AO40" s="53"/>
+      <c r="AP40" s="53"/>
+      <c r="AQ40" s="53"/>
     </row>
     <row r="41" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2461,12 +2461,37 @@
     <row r="54" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C2:X3"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AQ2"/>
-    <mergeCell ref="Y3:AC4"/>
-    <mergeCell ref="AD3:AQ4"/>
-    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="AG40:AQ40"/>
+    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="C35:AQ35"/>
+    <mergeCell ref="C36:AQ36"/>
+    <mergeCell ref="C29:AP29"/>
+    <mergeCell ref="C31:AQ31"/>
+    <mergeCell ref="C32:AQ32"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="C34:AQ34"/>
+    <mergeCell ref="AK23:AR23"/>
+    <mergeCell ref="AL25:AR25"/>
+    <mergeCell ref="AL26:AR26"/>
+    <mergeCell ref="AL27:AR27"/>
+    <mergeCell ref="C28:AQ28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="I14:AQ15"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="I17:AQ18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:AQ20"/>
     <mergeCell ref="AD5:AQ8"/>
     <mergeCell ref="C6:X7"/>
     <mergeCell ref="C8:X8"/>
@@ -2477,37 +2502,12 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="Y5:AC8"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="I14:AQ15"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="I17:AQ18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:AQ20"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AK23:AR23"/>
-    <mergeCell ref="AL25:AR25"/>
-    <mergeCell ref="AL26:AR26"/>
-    <mergeCell ref="AL27:AR27"/>
-    <mergeCell ref="C28:AQ28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="C35:AQ35"/>
-    <mergeCell ref="C36:AQ36"/>
-    <mergeCell ref="C29:AP29"/>
-    <mergeCell ref="C31:AQ31"/>
-    <mergeCell ref="C32:AQ32"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="C34:AQ34"/>
-    <mergeCell ref="AG40:AQ40"/>
-    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="C2:X3"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AQ2"/>
+    <mergeCell ref="Y3:AC4"/>
+    <mergeCell ref="AD3:AQ4"/>
+    <mergeCell ref="C4:X4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -171,7 +171,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -231,7 +231,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -532,15 +532,132 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -550,133 +667,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -990,7 +990,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AU10" sqref="AU10"/>
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1030,333 +1030,333 @@
   <sheetData>
     <row r="1" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="12" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
     </row>
     <row r="3" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="14" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="18" t="s">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
     </row>
     <row r="4" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="21"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="36"/>
     </row>
     <row r="5" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="30" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="41"/>
+      <c r="P5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="14" t="s">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="23" t="s">
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
     </row>
     <row r="6" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="33"/>
     </row>
     <row r="7" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="33"/>
     </row>
     <row r="8" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="21"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="36"/>
     </row>
     <row r="9" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,138 +1448,138 @@
       <c r="AQ11" s="56"/>
     </row>
     <row r="12" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
     </row>
     <row r="13" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="3:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="35" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="35"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="3:43" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="7"/>
@@ -1619,146 +1619,146 @@
       <c r="AQ16" s="7"/>
     </row>
     <row r="17" spans="2:51" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="35" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="35"/>
-      <c r="AI17" s="35"/>
-      <c r="AJ17" s="35"/>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6"/>
     </row>
     <row r="18" spans="2:51" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="35"/>
-      <c r="AE18" s="35"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="35"/>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
     </row>
     <row r="19" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="36" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
     </row>
     <row r="21" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AU21"/>
@@ -1768,118 +1768,118 @@
       <c r="AY21"/>
     </row>
     <row r="22" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39" t="s">
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39" t="s">
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="37" t="s">
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
     </row>
     <row r="23" spans="2:51" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="50" t="s">
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="51" t="s">
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="40" t="s">
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="42"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="14"/>
     </row>
     <row r="24" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -1941,15 +1941,15 @@
       <c r="AK25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AL25" s="43">
+      <c r="AL25" s="15">
         <v>700</v>
       </c>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
     </row>
     <row r="26" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z26" s="4"/>
@@ -1966,15 +1966,15 @@
       <c r="AK26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AL26" s="43">
+      <c r="AL26" s="15">
         <v>108.33</v>
       </c>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
     </row>
     <row r="27" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z27" s="4"/>
@@ -1991,376 +1991,376 @@
       <c r="AK27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL27" s="44" t="s">
+      <c r="AL27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
     </row>
     <row r="28" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="46"/>
-      <c r="AF28" s="46"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="46"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="AP28" s="46"/>
-      <c r="AQ28" s="46"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
     </row>
     <row r="29" spans="2:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="35"/>
-      <c r="AP29" s="35"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
       <c r="AQ29" s="7"/>
     </row>
     <row r="30" spans="2:51" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:51" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
     </row>
     <row r="32" spans="2:51" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
-      <c r="AO32" s="52"/>
-      <c r="AP32" s="52"/>
-      <c r="AQ32" s="52"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
     </row>
     <row r="33" spans="3:43" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52"/>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="52"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
     </row>
     <row r="34" spans="3:43" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52"/>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52"/>
-      <c r="AN34" s="52"/>
-      <c r="AO34" s="52"/>
-      <c r="AP34" s="52"/>
-      <c r="AQ34" s="52"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
     </row>
     <row r="35" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="52"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="52"/>
-      <c r="AO35" s="52"/>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="52"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
     </row>
     <row r="36" spans="3:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52"/>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="52"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
-      <c r="AQ36" s="52"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
     </row>
     <row r="37" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
@@ -2410,40 +2410,40 @@
         <v>32</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="J40" s="54" t="s">
+      <c r="J40" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
       <c r="AA40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AB40" s="5"/>
-      <c r="AG40" s="53" t="s">
+      <c r="AG40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="53"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="53"/>
-      <c r="AQ40" s="53"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8"/>
+      <c r="AN40" s="8"/>
+      <c r="AO40" s="8"/>
+      <c r="AP40" s="8"/>
+      <c r="AQ40" s="8"/>
     </row>
     <row r="41" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2461,15 +2461,34 @@
     <row r="54" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG40:AQ40"/>
-    <mergeCell ref="J40:X40"/>
-    <mergeCell ref="C35:AQ35"/>
-    <mergeCell ref="C36:AQ36"/>
-    <mergeCell ref="C29:AP29"/>
-    <mergeCell ref="C31:AQ31"/>
-    <mergeCell ref="C32:AQ32"/>
-    <mergeCell ref="C33:AQ33"/>
-    <mergeCell ref="C34:AQ34"/>
+    <mergeCell ref="C2:X3"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AQ2"/>
+    <mergeCell ref="Y3:AC4"/>
+    <mergeCell ref="AD3:AQ4"/>
+    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="AD5:AQ8"/>
+    <mergeCell ref="C6:X7"/>
+    <mergeCell ref="C8:X8"/>
+    <mergeCell ref="C10:AQ11"/>
+    <mergeCell ref="C12:AQ12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="Y5:AC8"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="I14:AQ15"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="I17:AQ18"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:AQ20"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:W22"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
     <mergeCell ref="AK23:AR23"/>
     <mergeCell ref="AL25:AR25"/>
     <mergeCell ref="AL26:AR26"/>
@@ -2480,34 +2499,15 @@
     <mergeCell ref="X23:AA23"/>
     <mergeCell ref="AB23:AE23"/>
     <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:W22"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="I14:AQ15"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="I17:AQ18"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:AQ20"/>
-    <mergeCell ref="AD5:AQ8"/>
-    <mergeCell ref="C6:X7"/>
-    <mergeCell ref="C8:X8"/>
-    <mergeCell ref="C10:AQ11"/>
-    <mergeCell ref="C12:AQ12"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="Y5:AC8"/>
-    <mergeCell ref="C2:X3"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AQ2"/>
-    <mergeCell ref="Y3:AC4"/>
-    <mergeCell ref="AD3:AQ4"/>
-    <mergeCell ref="C4:X4"/>
+    <mergeCell ref="AG40:AQ40"/>
+    <mergeCell ref="J40:X40"/>
+    <mergeCell ref="C35:AQ35"/>
+    <mergeCell ref="C36:AQ36"/>
+    <mergeCell ref="C29:AP29"/>
+    <mergeCell ref="C31:AQ31"/>
+    <mergeCell ref="C32:AQ32"/>
+    <mergeCell ref="C33:AQ33"/>
+    <mergeCell ref="C34:AQ34"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -170,8 +170,10 @@
     <r>
       <rPr>
         <b/>
+        <i/>
+        <u/>
         <sz val="14"/>
-        <color rgb="FFFFFF00"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -230,8 +232,10 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <u/>
       <sz val="14"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -628,6 +632,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -672,12 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,7 +994,7 @@
   <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1030,53 +1034,53 @@
   <sheetData>
     <row r="1" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="51" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="52" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
     </row>
     <row r="3" spans="3:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="38"/>
@@ -1100,61 +1104,61 @@
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="43" t="s">
+      <c r="X3" s="52"/>
+      <c r="Y3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="53" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="53"/>
-      <c r="AQ3" s="53"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
     </row>
     <row r="4" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="48"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="50"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
@@ -1171,43 +1175,43 @@
       <c r="AQ4" s="36"/>
     </row>
     <row r="5" spans="3:43" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="41" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42" t="s">
+      <c r="O5" s="43"/>
+      <c r="P5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="43" t="s">
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
       <c r="AD5" s="30" t="s">
         <v>9</v>
       </c>
@@ -1250,11 +1254,11 @@
       <c r="V6" s="37"/>
       <c r="W6" s="37"/>
       <c r="X6" s="37"/>
-      <c r="Y6" s="44"/>
+      <c r="Y6" s="46"/>
       <c r="Z6" s="28"/>
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
-      <c r="AC6" s="45"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="31"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
@@ -1293,11 +1297,11 @@
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
-      <c r="Y7" s="44"/>
+      <c r="Y7" s="46"/>
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
       <c r="AB7" s="28"/>
-      <c r="AC7" s="45"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="31"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
@@ -1338,11 +1342,11 @@
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="50"/>
       <c r="AD8" s="34"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
@@ -1360,135 +1364,135 @@
     </row>
     <row r="9" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
     </row>
     <row r="11" spans="3:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
     </row>
     <row r="12" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
     </row>
     <row r="13" spans="3:43" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="3:43" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">

--- a/public/templates/InvoiceTemplate.xlsx
+++ b/public/templates/InvoiceTemplate.xlsx
@@ -929,7 +929,7 @@
   </sheetPr>
   <dimension ref="A1:AS54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:AQ11"/>
     </sheetView>
   </sheetViews>
